--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BDB41-481A-47FD-A5E5-197B4F8D5110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E3303-4368-43CD-837B-32BD69768B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E3303-4368-43CD-837B-32BD69768B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391D3D0-9E48-45C2-9842-FA5BAC7A0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>정반명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>occupied</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -669,7 +665,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -692,7 +688,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -715,7 +711,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -738,7 +734,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -761,7 +757,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
@@ -784,7 +780,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -807,7 +803,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
@@ -830,7 +826,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>30</v>
@@ -853,7 +849,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>30</v>
@@ -876,7 +872,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -899,7 +895,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>30</v>
@@ -922,7 +918,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
@@ -945,7 +941,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -968,7 +964,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -991,7 +987,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -1014,7 +1010,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1043,23 +1039,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1067,13 +1063,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -1084,13 +1077,10 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1101,13 +1091,10 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -1118,13 +1105,10 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -1135,13 +1119,10 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1152,13 +1133,10 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -1169,13 +1147,10 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -1186,13 +1161,10 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>30</v>
@@ -1203,13 +1175,10 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>30</v>
@@ -1220,13 +1189,10 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -1236,9 +1202,6 @@
       </c>
       <c r="D11" s="1">
         <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391D3D0-9E48-45C2-9842-FA5BAC7A0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7EBDB-D4D3-4611-9E6C-B60F229193FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="15045" yWindow="1740" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1086,7 +1086,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -1128,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7EBDB-D4D3-4611-9E6C-B60F229193FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B0342-8637-431E-A19C-370A6D4538A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15045" yWindow="1740" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="16290" yWindow="0" windowWidth="12705" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,80 +92,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2">
-        <v>45332</v>
+        <v>45342</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -599,19 +539,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -622,16 +562,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>45332</v>
@@ -645,19 +585,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>45337</v>
+        <v>45328</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -665,19 +605,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>45337</v>
@@ -688,22 +628,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>45337</v>
+        <v>45333</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -711,22 +651,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>45327</v>
+        <v>45343</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -734,7 +674,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -746,288 +686,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>45335</v>
+        <v>45350</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45332</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45334</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45337</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45332</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45332</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45337</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45334</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45337</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45332</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45334</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45337</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45337</v>
-      </c>
-      <c r="G21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1039,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,7 +736,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1086,10 +750,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,110 +761,12 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
         <v>10</v>
       </c>
     </row>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B0342-8637-431E-A19C-370A6D4538A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4C654-8C32-4ADE-862F-9F69FB0612D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16290" yWindow="0" windowWidth="12705" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="3315" yWindow="3600" windowWidth="11115" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,18 +93,6 @@
   </si>
   <si>
     <t>S5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +466,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>45342</v>
+        <v>45337</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -548,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -571,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -594,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -611,7 +599,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -620,80 +608,20 @@
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>45337</v>
+        <v>45342</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45333</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45343</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45350</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -706,7 +634,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4C654-8C32-4ADE-862F-9F69FB0612D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8201D2E-A804-4E06-AA42-2E672D942958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3600" windowWidth="11115" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정반배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,20 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,13 +490,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -518,13 +510,10 @@
       <c r="F2" s="2">
         <v>45337</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -541,13 +530,10 @@
       <c r="F3" s="2">
         <v>45336</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -564,13 +550,10 @@
       <c r="F4" s="2">
         <v>45335</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -587,13 +570,10 @@
       <c r="F5" s="2">
         <v>45334</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -610,17 +590,14 @@
       <c r="F6" s="2">
         <v>45342</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
     </row>
   </sheetData>
@@ -644,10 +621,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -658,7 +635,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -672,7 +649,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -686,7 +663,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
